--- a/Document/English/English.xlsx
+++ b/Document/English/English.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Common\CommonJS\Document\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6CDB0C6-BF0D-45DD-9954-0065F0F15F2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF91D42D-846A-45AC-AABD-AA1D4B214D18}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Loai danh tu" sheetId="1" r:id="rId1"/>
+    <sheet name="Thi" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="Ngôi 1 2 3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="109">
   <si>
     <t>Noun</t>
   </si>
@@ -262,6 +265,102 @@
   </si>
   <si>
     <t>Nếu teacher số nhiều thì không cần từ hạn định.</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Column4</t>
+  </si>
+  <si>
+    <t>recipe</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>S+ Ve/es</t>
+  </si>
+  <si>
+    <t>1.Động từ mô tả hành động thường xuyên lặp đi lặp lại.
+2. Diễn tả sự việc có thật trong thời gian dài.
+3. Hành động hoặc sự việc hiển nhiên.
+4. Diễn tả đã lên lịch sẵn.</t>
+  </si>
+  <si>
+    <t>1. Out class begins at 7 am and ends at 11 am every morning
+2. My father work as a doctor for a big hospital.
+3. The Sun rices in the east and sets in the west.
+4.The MTV program begin at 7 this evening.</t>
+  </si>
+  <si>
+    <t>1.Simple Present</t>
+  </si>
+  <si>
+    <t>Work</t>
+  </si>
+  <si>
+    <t>Ngôi 1</t>
+  </si>
+  <si>
+    <t>I/We</t>
+  </si>
+  <si>
+    <t>Ngôi 2</t>
+  </si>
+  <si>
+    <t>You/You</t>
+  </si>
+  <si>
+    <t>Ngôi 3</t>
+  </si>
+  <si>
+    <t>He/She/It</t>
+  </si>
+  <si>
+    <t>Nhóm số ít</t>
+  </si>
+  <si>
+    <t>I/You/We/They</t>
+  </si>
+  <si>
+    <t>Nhóm số nhiều</t>
+  </si>
+  <si>
+    <t>Chia thì.</t>
+  </si>
+  <si>
+    <t>We work</t>
+  </si>
+  <si>
+    <t>He works</t>
+  </si>
+  <si>
+    <t>You don't work</t>
+  </si>
+  <si>
+    <t>She doesn't work</t>
+  </si>
+  <si>
+    <t>đại từ chủ ngữ</t>
+  </si>
+  <si>
+    <t>đại từ tân ngữ</t>
+  </si>
+  <si>
+    <t>tính từ sở hữu</t>
+  </si>
+  <si>
+    <t>đại từ sở hữu</t>
+  </si>
+  <si>
+    <t>Đại từ phản thân</t>
+  </si>
+  <si>
+    <t>https://tienganhmoingay.com/ngu-phap-tieng-anh/dai-tu-nhan-xung-chu-ngu-tan-ngu/</t>
   </si>
 </sst>
 </file>
@@ -312,7 +411,46 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="25">
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -411,27 +549,103 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>184202</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>103843</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CCB54B1-B343-4980-AE0F-D8A71A1BE5AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="259080"/>
+          <a:ext cx="12376202" cy="4599643"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3E02AB18-C239-43C9-9D3F-A87C89046CFF}" name="Table1" displayName="Table1" ref="A3:D27" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3E02AB18-C239-43C9-9D3F-A87C89046CFF}" name="Table1" displayName="Table1" ref="A3:D27" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="A3:D27" xr:uid="{2965E2FD-2FD4-4614-A6BA-AF711E4AF259}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7D41752C-1277-48E1-9B48-D19593785CB1}" name="Noun" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{0658F814-81B5-4337-AC74-B754F29909B0}" name="Verb" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{35BEF2FD-1421-4BFB-8A0E-682946513D55}" name="Adjective" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{95F50E35-6CB5-40C9-9D12-A3D0CF113B01}" name="Adverb" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{7D41752C-1277-48E1-9B48-D19593785CB1}" name="Noun" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{0658F814-81B5-4337-AC74-B754F29909B0}" name="Verb" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{35BEF2FD-1421-4BFB-8A0E-682946513D55}" name="Adjective" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{95F50E35-6CB5-40C9-9D12-A3D0CF113B01}" name="Adverb" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3D971C52-57F0-45DF-80C4-0C72EED3BC4E}" name="Table2" displayName="Table2" ref="A30:D41" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3D971C52-57F0-45DF-80C4-0C72EED3BC4E}" name="Table2" displayName="Table2" ref="A30:D41" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="A30:D41" xr:uid="{04E28450-29B1-48AC-B958-9C39DCC3E28D}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{D783089E-C754-4604-A0D3-1A704164659D}" name="Name" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{E6D4ACC7-BA30-49CC-B8C2-6DF76CB5BB2D}" name="Derterminer" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{4390ED2C-C471-483B-8EC7-A189FFFAFABB}" name="example" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{6E8BA3CF-182D-44CD-9200-48641D230154}" name="Note" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{D783089E-C754-4604-A0D3-1A704164659D}" name="Name" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{E6D4ACC7-BA30-49CC-B8C2-6DF76CB5BB2D}" name="Derterminer" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{4390ED2C-C471-483B-8EC7-A189FFFAFABB}" name="example" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{6E8BA3CF-182D-44CD-9200-48641D230154}" name="Note" dataDxfId="13"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E4BA72EF-FDE4-4D9E-8BA7-959FBA076343}" name="Table3" displayName="Table3" ref="A2:E14" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A2:E14" xr:uid="{3495B719-766A-4841-BD00-C529BED95E19}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{DB526C01-9C9B-46FB-895A-CFAAA9DD5874}" name="Name" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{B1E14FB6-1073-4FED-A0EE-00446E4AB4EF}" name="recipe" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{310CE9EE-B2C3-47E4-A5CA-346844C08785}" name="Example" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{B157F726-A16B-4130-9E6B-7580FD99D9CA}" name="Note" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{809DBA37-C58E-4BB7-9E5C-94777499C058}" name="Description" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{47A4ECB3-724D-4404-B62E-E54B0B9408AB}" name="Table4" displayName="Table4" ref="A2:D10" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A2:D10" xr:uid="{0EFF13E8-F23D-4EDE-A004-B33E63F4255E}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{05E04566-1022-40D5-8E2B-BB76768BFA22}" name="Name" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{80F10384-C89D-4ECA-AFBC-AAC0695E690A}" name="Work" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{6AAF260C-0ACF-41F9-8A42-CA317486B7F8}" name="Column3" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{996EC604-BDED-4061-9C0D-54FA1CBA7EE4}" name="Column4" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -702,7 +916,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:D41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
@@ -1073,4 +1287,204 @@
     <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FE62AB1-7427-4A9B-8DE2-C169595D6B11}">
+  <dimension ref="A2:E6"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.77734375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="34.77734375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="51.5546875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2592FFA0-10AF-4C0A-8944-755856A1CCC6}">
+  <dimension ref="A1:Q28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE90454D-A725-44A5-8580-C71F8CCB4AC2}">
+  <dimension ref="A2:D7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="33.109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" style="3" customWidth="1"/>
+    <col min="3" max="4" width="10.44140625" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Document/English/English.xlsx
+++ b/Document/English/English.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Common\CommonJS\Document\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF91D42D-846A-45AC-AABD-AA1D4B214D18}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC938F26-A540-4843-A9A7-17F2EDA0E2DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="121">
   <si>
     <t>Noun</t>
   </si>
@@ -361,19 +361,1075 @@
   </si>
   <si>
     <t>https://tienganhmoingay.com/ngu-phap-tieng-anh/dai-tu-nhan-xung-chu-ngu-tan-ngu/</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Đại từ tân ngữ</t>
+  </si>
+  <si>
+    <t>Tiếng Anh có 8 đại từ nhân xưng: I, you, he, she, it, we, you, they.</t>
+  </si>
+  <si>
+    <t>Tuy nhiên, chúng ta cũng cần lưu ý là, khác với các đại từ khác trong tiếng Anh, đại từ phản thân không bao giờ đứng ở vị trí chủ ngữ.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ví dụ danh từ:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Vị trí chủ ngữ: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>The student</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> is good at math. = Bạn sinh viên này học giỏi toán.
+Vị trí tân ngữ: I like </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>the student</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. = Tôi thích bạn sinh viên này.
+Đứng sau giới từ:  I went to the park with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>the student</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. = Tôi đi đến công viên với bạn sinh viên này.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ví dụ đại từ nhân xưng:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Vị trí chủ ngữ: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>He</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> is good at math. = Anh ấy học giỏi toán.
+Vị trí tân ngữ: I like </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>him.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = Tôi thích anh ấy.
+Đứng sau giới từ: I went to the park with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>him.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = Tôi đi đến công viên với anh ấy.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Dùng đại từ phản thân làm tân ngữ của động từ nếu tân ngữ này giống với chủ ngữ của động từ đó</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+I hurt </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>myself</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> by accident. = Tôi vô tình làm đau bản thân.
+→ Ở câu này, "tôi" vừa là tân ngữ của hành động làm đau, vừa là chủ ngữ của hành động làm đau. Vì vậy, thay vì tân ngữ là me thì chúng ta phải dùng myself.
+→ Chúng ta không nói I hurt me by accident mà phải nói I hurt </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>myself</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> by accident.
+She bought </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>herself</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> a pizza. = Cô ấy mua cho mình một cái bánh pizza.
+→ Ở câu này, "cô ấy" vừa là tân ngữ của hành động mua, vừa là chủ ngữ của hành động mua. Vì vậy, thay vì tân ngữ là her thì chúng ta phải dùng </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>herself.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+→ Chúng ta không nói She bought her a pizza mà phải nói She bought herself a pizza.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>* Dùng đại từ phản thân làm tân ngữ của giới từ nếu tân ngữ này giống với chủ ngữ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">They had to cook for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>themselves.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = Họ phải tự nấu ăn cho bản thân họ.
+→ Ở câu này, "họ" vừa là tân ngữ của giới từ for, vừa là chủ ngữ. Vì vậy, thay vì tân ngữ là them thì chúng ta phải dùng </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>themselves.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+→ Chúng ta không nói They had to cook for them mà phải nói They had to cook for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">themselves.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>* Dùng đại từ phản thân sau giới từ "by" thì sẽ có nghĩa là "một mình" hoặc "tự làm"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Tom did his homework by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>himself.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Tom tự làm bài tập về nhà.
+She was standing at the bus stop by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>herself.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Cô ấy đứng ở trạm xe buýt một mình.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> * Dùng đại từ phản thân ở ngay sau chủ ngữ hoặc cuối câu để diễn tả ý nhấn mạnh rằng "đích thân chủ ngữ là người thực hiện hành động gì đó"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">The manager spoke to me </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>himself.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Đích thân ông quản lý nói chuyện với tôi.
+You </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>yourself</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> wrote those words. Don't you remember?
+Chính bạn là người viết người lời đó. Bạn không nhớ à?</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Đại từ sở hữu là những đại từ để chỉ sự sở hữu.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nghe định nghĩa ở trên thì có thể hơi khó hiểu. Chúng ta chỉ cần xem ví dụ sau đây thì sẽ hiểu rõ hơn:
+His car is expensive. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Mine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> is cheap.
+Xe của ấy thì đắt. Cái của tôi thì rẻ.
+Đại từ sở hữu bao gồm các từ mine, yours, his, hers, ours, theirs. 
+Nghe định nghĩa ở trên thì có thể hơi khó hiểu. Chúng ta chỉ cần xem ví dụ sau đây thì sẽ hiểu rõ hơn:
+His car is expensive. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Mine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> is cheap.
+Xe của ấy thì đắt. Cái của tôi thì rẻ.
+Đại từ sở hữu bao gồm các từ mine, yours, his, hers, ours, theirs. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Lưu ý</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: its cũng là đại từ sở hữu nhưng cực kỳ hiếm khi được dùng.: its cũng là đại từ sở hữu nhưng cực kỳ hiếm khi được dùng.
+Vì là một loại đại từ, nên theo cấu trúc câu chi tiết thì đại từ sở hữu có thể đứng ở các vị trí sau:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Chủ ngữ
+Tân ngữ
+Đứng sau giới từ (trong cụm giới từ)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cũng giống như các đại từ khác trong tiếng Anh,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tân ngữ
+Đứng sau giới từ (trong cụm giới từ)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Như đã học ở trên, đại từ nhân xưng là từ dùng để đại diện cho một danh từ hoặc một cụm danh từ.
+Vì vậy, đại từ nhân xưng có thể đứng ở các vị trí mà danh từ hoặc cụm danh từ đứng được trong câu, cụ thể là:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Chủ ngữ
+Tân ngữ
+Đứng sau giới từ (trong cụm giới từ)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Đại từ nhân xưng có thể đứng ở các vị trí và đóng các vai trò sau trong câu: chủ ngữ, tân ngữ, sau giới từ.
+Mỗi đại từ nhân xưng có 2 dạng: dạng chủ ngữ và dạng tân ngữ.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ví dụ:
+Chủ ngữ: His car is expensive. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Mine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> is cheap.
+Tân ngữ: He bought his car two years ago. I bought </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>mine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> one month ago.
+Đứng sau giới từ: I could deal with his problem easily but I don't know what to do with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">mine
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">**Phân biệt tính từ sở hữu và đại từ sở hữu
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Chúng ta cần chú ý phân biệt Tính từ sở hữu (Từ hạn định sở hữu) và Đại từ sở hữu như sau:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tính từ sở hữu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> phải</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> LUÔN LUÔN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> bổ nghĩa cho một danh từ đằng sau nó.
+Sau </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>đại từ sở hữu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ta </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>KHÔNG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> dùng thêm danh từ bởi vì bản thân nó đóng vai trò như một cụm danh từ.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ví dụ 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>My</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> car is blue. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>His</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> car is red. = Xe của tôi màu xanh. Xe của anh ấy màu đỏ.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>My</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> và </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>his</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ở đây là tính từ sở hữu, vì </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>my</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> đang bổ nghĩa cho danh từ car và his đang bổ nghĩa cho danh từ car.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>My</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> car is blue. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>His</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> is red. = Xe của tôi màu xanh. (Cái) của anh ấy màu đỏ.
+Ở câu này his là đại từ sở hữu. His ở đây là đang ám chỉ đến his car, xe của anh ấy.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ví dụ 2:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+She wanted a shirt like </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>mine.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = Cô ấy muốn có một cái áo sơ mi giống của tôi.
+Ở câu này </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>mine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> là đại từ sở hữu. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Mine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ở đây là đang ám chỉ đến my shirt, cái áo sơ mi của tôi.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF00B050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -396,7 +1452,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -407,11 +1463,101 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="31">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -546,6 +1692,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>112595</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>431673</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>125267</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A1FC6DF-F192-4A1D-9A33-9C1444B90D7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8267700" y="295475"/>
+          <a:ext cx="8143113" cy="3853152"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -553,23 +1743,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3985260</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>184202</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>103843</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9338657</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>32788</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CCB54B1-B343-4980-AE0F-D8A71A1BE5AD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D730606B-A870-4D30-AFFA-1B944CBBE654}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -585,8 +1775,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="259080"/>
-          <a:ext cx="12376202" cy="4599643"/>
+          <a:off x="5410200" y="0"/>
+          <a:ext cx="5356860" cy="5519188"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -599,53 +1789,67 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3E02AB18-C239-43C9-9D3F-A87C89046CFF}" name="Table1" displayName="Table1" ref="A3:D27" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3E02AB18-C239-43C9-9D3F-A87C89046CFF}" name="Table1" displayName="Table1" ref="A3:D27" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
   <autoFilter ref="A3:D27" xr:uid="{2965E2FD-2FD4-4614-A6BA-AF711E4AF259}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7D41752C-1277-48E1-9B48-D19593785CB1}" name="Noun" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{0658F814-81B5-4337-AC74-B754F29909B0}" name="Verb" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{35BEF2FD-1421-4BFB-8A0E-682946513D55}" name="Adjective" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{95F50E35-6CB5-40C9-9D12-A3D0CF113B01}" name="Adverb" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{7D41752C-1277-48E1-9B48-D19593785CB1}" name="Noun" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{0658F814-81B5-4337-AC74-B754F29909B0}" name="Verb" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{35BEF2FD-1421-4BFB-8A0E-682946513D55}" name="Adjective" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{95F50E35-6CB5-40C9-9D12-A3D0CF113B01}" name="Adverb" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3D971C52-57F0-45DF-80C4-0C72EED3BC4E}" name="Table2" displayName="Table2" ref="A30:D41" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3D971C52-57F0-45DF-80C4-0C72EED3BC4E}" name="Table2" displayName="Table2" ref="A30:D41" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="A30:D41" xr:uid="{04E28450-29B1-48AC-B958-9C39DCC3E28D}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{D783089E-C754-4604-A0D3-1A704164659D}" name="Name" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{E6D4ACC7-BA30-49CC-B8C2-6DF76CB5BB2D}" name="Derterminer" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{4390ED2C-C471-483B-8EC7-A189FFFAFABB}" name="example" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{6E8BA3CF-182D-44CD-9200-48641D230154}" name="Note" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{D783089E-C754-4604-A0D3-1A704164659D}" name="Name" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{E6D4ACC7-BA30-49CC-B8C2-6DF76CB5BB2D}" name="Derterminer" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{4390ED2C-C471-483B-8EC7-A189FFFAFABB}" name="example" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{6E8BA3CF-182D-44CD-9200-48641D230154}" name="Note" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E4BA72EF-FDE4-4D9E-8BA7-959FBA076343}" name="Table3" displayName="Table3" ref="A2:E14" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E4BA72EF-FDE4-4D9E-8BA7-959FBA076343}" name="Table3" displayName="Table3" ref="A2:E14" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="A2:E14" xr:uid="{3495B719-766A-4841-BD00-C529BED95E19}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{DB526C01-9C9B-46FB-895A-CFAAA9DD5874}" name="Name" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{B1E14FB6-1073-4FED-A0EE-00446E4AB4EF}" name="recipe" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{310CE9EE-B2C3-47E4-A5CA-346844C08785}" name="Example" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{B157F726-A16B-4130-9E6B-7580FD99D9CA}" name="Note" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{809DBA37-C58E-4BB7-9E5C-94777499C058}" name="Description" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{DB526C01-9C9B-46FB-895A-CFAAA9DD5874}" name="Name" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{B1E14FB6-1073-4FED-A0EE-00446E4AB4EF}" name="recipe" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{310CE9EE-B2C3-47E4-A5CA-346844C08785}" name="Example" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{B157F726-A16B-4130-9E6B-7580FD99D9CA}" name="Note" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{809DBA37-C58E-4BB7-9E5C-94777499C058}" name="Description" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{47A4ECB3-724D-4404-B62E-E54B0B9408AB}" name="Table4" displayName="Table4" ref="A2:D10" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{3A470E31-AB3C-44AB-BB7C-9EE23FC296EE}" name="Table5" displayName="Table5" ref="A33:E42" totalsRowShown="0" dataDxfId="0">
+  <autoFilter ref="A33:E42" xr:uid="{2B587680-0A54-4141-8353-D9FB453228A2}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{BE400E74-6DFB-43F7-99BC-1636E7E9218C}" name="Name" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{9E4EFBC5-0F7F-4210-8272-02723F913B8F}" name="Description" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{6227729A-E28D-44A3-AA31-BF9A5111483F}" name="Example" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{4C162D85-591D-4C99-B551-34560D70842C}" name="Note" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{EB51AA73-0699-4B60-8515-BA2273761FDB}" name="Link" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{47A4ECB3-724D-4404-B62E-E54B0B9408AB}" name="Table4" displayName="Table4" ref="A2:D10" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A2:D10" xr:uid="{0EFF13E8-F23D-4EDE-A004-B33E63F4255E}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{05E04566-1022-40D5-8E2B-BB76768BFA22}" name="Name" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{80F10384-C89D-4ECA-AFBC-AAC0695E690A}" name="Work" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{6AAF260C-0ACF-41F9-8A42-CA317486B7F8}" name="Column3" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{996EC604-BDED-4061-9C0D-54FA1CBA7EE4}" name="Column4" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{05E04566-1022-40D5-8E2B-BB76768BFA22}" name="Name" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{80F10384-C89D-4ECA-AFBC-AAC0695E690A}" name="Work" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{6AAF260C-0ACF-41F9-8A42-CA317486B7F8}" name="Column3" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{996EC604-BDED-4061-9C0D-54FA1CBA7EE4}" name="Column4" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -916,8 +2120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:D41"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1375,13 +2579,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2592FFA0-10AF-4C0A-8944-755856A1CCC6}">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.77734375" customWidth="1"/>
+    <col min="2" max="2" width="149.5546875" customWidth="1"/>
+    <col min="3" max="3" width="129.21875" customWidth="1"/>
+    <col min="4" max="4" width="36.109375" customWidth="1"/>
+    <col min="5" max="5" width="47.44140625" customWidth="1"/>
+    <col min="6" max="8" width="10.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
@@ -1405,9 +2617,120 @@
         <v>108</v>
       </c>
     </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="190.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="1:5" ht="408" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="1:5" ht="284.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" spans="1:5" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+    </row>
+    <row r="42" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/Document/English/English.xlsx
+++ b/Document/English/English.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Common\CommonJS\Document\English\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Hung\Code\JS\Common\Document\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC938F26-A540-4843-A9A7-17F2EDA0E2DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="30940" windowHeight="16900" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Loai danh tu" sheetId="1" r:id="rId1"/>
@@ -1390,7 +1389,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1475,6 +1474,24 @@
   </cellStyles>
   <dxfs count="31">
     <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1483,7 +1500,6 @@
         <vertAlign val="baseline"/>
         <sz val="15"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1497,7 +1513,6 @@
         <vertAlign val="baseline"/>
         <sz val="15"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1511,7 +1526,6 @@
         <vertAlign val="baseline"/>
         <sz val="15"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1525,7 +1539,6 @@
         <vertAlign val="baseline"/>
         <sz val="15"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1539,7 +1552,6 @@
         <vertAlign val="baseline"/>
         <sz val="15"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1553,28 +1565,9 @@
         <vertAlign val="baseline"/>
         <sz val="15"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1775,8 +1768,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5410200" y="0"/>
-          <a:ext cx="5356860" cy="5519188"/>
+          <a:off x="5436689" y="0"/>
+          <a:ext cx="5353397" cy="5475645"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1789,67 +1782,67 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3E02AB18-C239-43C9-9D3F-A87C89046CFF}" name="Table1" displayName="Table1" ref="A3:D27" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
-  <autoFilter ref="A3:D27" xr:uid="{2965E2FD-2FD4-4614-A6BA-AF711E4AF259}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:D27" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+  <autoFilter ref="A3:D27"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7D41752C-1277-48E1-9B48-D19593785CB1}" name="Noun" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{0658F814-81B5-4337-AC74-B754F29909B0}" name="Verb" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{35BEF2FD-1421-4BFB-8A0E-682946513D55}" name="Adjective" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{95F50E35-6CB5-40C9-9D12-A3D0CF113B01}" name="Adverb" dataDxfId="25"/>
+    <tableColumn id="1" name="Noun" dataDxfId="28"/>
+    <tableColumn id="2" name="Verb" dataDxfId="27"/>
+    <tableColumn id="3" name="Adjective" dataDxfId="26"/>
+    <tableColumn id="4" name="Adverb" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3D971C52-57F0-45DF-80C4-0C72EED3BC4E}" name="Table2" displayName="Table2" ref="A30:D41" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
-  <autoFilter ref="A30:D41" xr:uid="{04E28450-29B1-48AC-B958-9C39DCC3E28D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A30:D41" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+  <autoFilter ref="A30:D41"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{D783089E-C754-4604-A0D3-1A704164659D}" name="Name" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{E6D4ACC7-BA30-49CC-B8C2-6DF76CB5BB2D}" name="Derterminer" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{4390ED2C-C471-483B-8EC7-A189FFFAFABB}" name="example" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{6E8BA3CF-182D-44CD-9200-48641D230154}" name="Note" dataDxfId="19"/>
+    <tableColumn id="1" name="Name" dataDxfId="22"/>
+    <tableColumn id="2" name="Derterminer" dataDxfId="21"/>
+    <tableColumn id="3" name="example" dataDxfId="20"/>
+    <tableColumn id="4" name="Note" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E4BA72EF-FDE4-4D9E-8BA7-959FBA076343}" name="Table3" displayName="Table3" ref="A2:E14" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A2:E14" xr:uid="{3495B719-766A-4841-BD00-C529BED95E19}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A2:E14" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A2:E14"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{DB526C01-9C9B-46FB-895A-CFAAA9DD5874}" name="Name" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{B1E14FB6-1073-4FED-A0EE-00446E4AB4EF}" name="recipe" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{310CE9EE-B2C3-47E4-A5CA-346844C08785}" name="Example" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{B157F726-A16B-4130-9E6B-7580FD99D9CA}" name="Note" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{809DBA37-C58E-4BB7-9E5C-94777499C058}" name="Description" dataDxfId="12"/>
+    <tableColumn id="1" name="Name" dataDxfId="16"/>
+    <tableColumn id="2" name="recipe" dataDxfId="15"/>
+    <tableColumn id="3" name="Example" dataDxfId="14"/>
+    <tableColumn id="4" name="Note" dataDxfId="13"/>
+    <tableColumn id="5" name="Description" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{3A470E31-AB3C-44AB-BB7C-9EE23FC296EE}" name="Table5" displayName="Table5" ref="A33:E42" totalsRowShown="0" dataDxfId="0">
-  <autoFilter ref="A33:E42" xr:uid="{2B587680-0A54-4141-8353-D9FB453228A2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A33:E42" totalsRowShown="0" dataDxfId="11">
+  <autoFilter ref="A33:E42"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{BE400E74-6DFB-43F7-99BC-1636E7E9218C}" name="Name" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{9E4EFBC5-0F7F-4210-8272-02723F913B8F}" name="Description" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{6227729A-E28D-44A3-AA31-BF9A5111483F}" name="Example" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{4C162D85-591D-4C99-B551-34560D70842C}" name="Note" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{EB51AA73-0699-4B60-8515-BA2273761FDB}" name="Link" dataDxfId="1"/>
+    <tableColumn id="1" name="Name" dataDxfId="10"/>
+    <tableColumn id="2" name="Description" dataDxfId="9"/>
+    <tableColumn id="3" name="Example" dataDxfId="8"/>
+    <tableColumn id="4" name="Note" dataDxfId="7"/>
+    <tableColumn id="5" name="Link" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{47A4ECB3-724D-4404-B62E-E54B0B9408AB}" name="Table4" displayName="Table4" ref="A2:D10" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A2:D10" xr:uid="{0EFF13E8-F23D-4EDE-A004-B33E63F4255E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A2:D10" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A2:D10"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{05E04566-1022-40D5-8E2B-BB76768BFA22}" name="Name" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{80F10384-C89D-4ECA-AFBC-AAC0695E690A}" name="Work" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{6AAF260C-0ACF-41F9-8A42-CA317486B7F8}" name="Column3" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{996EC604-BDED-4061-9C0D-54FA1CBA7EE4}" name="Column4" dataDxfId="6"/>
+    <tableColumn id="1" name="Name" dataDxfId="3"/>
+    <tableColumn id="2" name="Work" dataDxfId="2"/>
+    <tableColumn id="3" name="Column3" dataDxfId="1"/>
+    <tableColumn id="4" name="Column4" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2117,23 +2110,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:D41"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="24.6328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.81640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.453125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2147,12 +2140,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -2166,7 +2159,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -2180,7 +2173,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -2194,7 +2187,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -2208,7 +2201,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -2219,7 +2212,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -2227,7 +2220,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -2235,7 +2228,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -2243,7 +2236,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -2251,7 +2244,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -2259,12 +2252,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>47</v>
       </c>
@@ -2278,7 +2271,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
@@ -2292,7 +2285,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
@@ -2306,7 +2299,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
@@ -2320,7 +2313,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
@@ -2334,7 +2327,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
@@ -2345,7 +2338,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="C22" s="1" t="s">
         <v>48</v>
       </c>
@@ -2353,7 +2346,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="C23" s="1" t="s">
         <v>49</v>
       </c>
@@ -2361,7 +2354,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C24" s="1" t="s">
         <v>56</v>
       </c>
@@ -2369,22 +2362,22 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C25" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C26" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>66</v>
       </c>
@@ -2398,7 +2391,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>68</v>
       </c>
@@ -2410,7 +2403,7 @@
       </c>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
         <v>72</v>
@@ -2420,7 +2413,7 @@
       </c>
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
         <v>73</v>
@@ -2432,7 +2425,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
         <v>74</v>
@@ -2440,43 +2433,43 @@
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -2494,24 +2487,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FE62AB1-7427-4A9B-8DE2-C169595D6B11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E6"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.77734375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18.21875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="34.77734375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="51.5546875" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="18.81640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="28.6328125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="34.81640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="51.54296875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="8.90625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>66</v>
       </c>
@@ -2528,7 +2521,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="116" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>87</v>
       </c>
@@ -2542,7 +2535,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>98</v>
       </c>
@@ -2553,7 +2546,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
         <v>99</v>
       </c>
@@ -2561,7 +2554,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
         <v>101</v>
       </c>
@@ -2578,24 +2571,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2592FFA0-10AF-4C0A-8944-755856A1CCC6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" customWidth="1"/>
-    <col min="2" max="2" width="149.5546875" customWidth="1"/>
-    <col min="3" max="3" width="129.21875" customWidth="1"/>
-    <col min="4" max="4" width="36.109375" customWidth="1"/>
-    <col min="5" max="5" width="47.44140625" customWidth="1"/>
-    <col min="6" max="8" width="10.44140625" customWidth="1"/>
+    <col min="1" max="1" width="20.81640625" customWidth="1"/>
+    <col min="2" max="2" width="149.54296875" customWidth="1"/>
+    <col min="3" max="3" width="129.1796875" customWidth="1"/>
+    <col min="4" max="4" width="36.08984375" customWidth="1"/>
+    <col min="5" max="5" width="47.453125" customWidth="1"/>
+    <col min="6" max="8" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>103</v>
       </c>
@@ -2612,17 +2605,17 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>66</v>
       </c>
@@ -2639,7 +2632,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="190.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="190" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>110</v>
       </c>
@@ -2652,7 +2645,7 @@
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
     </row>
-    <row r="35" spans="1:5" ht="408" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="408" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>107</v>
       </c>
@@ -2667,7 +2660,7 @@
       </c>
       <c r="E35" s="4"/>
     </row>
-    <row r="36" spans="1:5" ht="284.39999999999998" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="266" x14ac:dyDescent="0.35">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="5" t="s">
@@ -2676,7 +2669,7 @@
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
     </row>
-    <row r="37" spans="1:5" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="409.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>116</v>
       </c>
@@ -2689,35 +2682,35 @@
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
     </row>
-    <row r="38" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="19" x14ac:dyDescent="0.35">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
     </row>
-    <row r="39" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="19" x14ac:dyDescent="0.35">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
     </row>
-    <row r="40" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="19" x14ac:dyDescent="0.35">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
     </row>
-    <row r="41" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="19" x14ac:dyDescent="0.35">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
     </row>
-    <row r="42" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="19" x14ac:dyDescent="0.35">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -2735,22 +2728,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE90454D-A725-44A5-8580-C71F8CCB4AC2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33.109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="32.33203125" style="3" customWidth="1"/>
-    <col min="3" max="4" width="10.44140625" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="33.08984375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="32.36328125" style="3" customWidth="1"/>
+    <col min="3" max="4" width="10.453125" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="8.90625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>66</v>
       </c>
@@ -2764,7 +2757,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>89</v>
       </c>
@@ -2772,7 +2765,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>91</v>
       </c>
@@ -2780,7 +2773,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>93</v>
       </c>
@@ -2788,7 +2781,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>97</v>
       </c>
@@ -2796,7 +2789,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>95</v>
       </c>

--- a/Document/English/English.xlsx
+++ b/Document/English/English.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Hung\Code\JS\Common\Document\English\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Common\CommonJS\Document\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B3C004-054D-4C22-A5FB-A73FE07E7416}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="30940" windowHeight="16900" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Loai danh tu" sheetId="1" r:id="rId1"/>
     <sheet name="Thi" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
     <sheet name="Ngôi 1 2 3" sheetId="3" r:id="rId4"/>
+    <sheet name="Chu ngu + vi ngu" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="123">
   <si>
     <t>Noun</t>
   </si>
@@ -1385,12 +1387,18 @@
       <t xml:space="preserve"> ở đây là đang ám chỉ đến my shirt, cái áo sơ mi của tôi.</t>
     </r>
   </si>
+  <si>
+    <t>Chủ ngữ</t>
+  </si>
+  <si>
+    <t>Vị ngữ</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1430,6 +1438,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1451,7 +1467,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1468,6 +1484,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1781,68 +1798,161 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>553548</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152847</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D3B8447-0AF1-43C3-B381-706282A13F84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="381000"/>
+          <a:ext cx="7868748" cy="3200847"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>30025</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>143453</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44F94DB1-780B-40E5-9B46-B73ADBBA9232}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4191000"/>
+          <a:ext cx="10393225" cy="4143953"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:D27" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
-  <autoFilter ref="A3:D27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A3:D27" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+  <autoFilter ref="A3:D27" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Noun" dataDxfId="28"/>
-    <tableColumn id="2" name="Verb" dataDxfId="27"/>
-    <tableColumn id="3" name="Adjective" dataDxfId="26"/>
-    <tableColumn id="4" name="Adverb" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Noun" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Verb" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Adjective" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Adverb" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A30:D41" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
-  <autoFilter ref="A30:D41"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A30:D41" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+  <autoFilter ref="A30:D41" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Name" dataDxfId="22"/>
-    <tableColumn id="2" name="Derterminer" dataDxfId="21"/>
-    <tableColumn id="3" name="example" dataDxfId="20"/>
-    <tableColumn id="4" name="Note" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Name" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Derterminer" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="example" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Note" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A2:E14" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A2:E14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="A2:E14" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A2:E14" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Name" dataDxfId="16"/>
-    <tableColumn id="2" name="recipe" dataDxfId="15"/>
-    <tableColumn id="3" name="Example" dataDxfId="14"/>
-    <tableColumn id="4" name="Note" dataDxfId="13"/>
-    <tableColumn id="5" name="Description" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Name" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="recipe" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Example" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Note" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Description" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A33:E42" totalsRowShown="0" dataDxfId="11">
-  <autoFilter ref="A33:E42"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table5" displayName="Table5" ref="A33:E42" totalsRowShown="0" dataDxfId="11">
+  <autoFilter ref="A33:E42" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Name" dataDxfId="10"/>
-    <tableColumn id="2" name="Description" dataDxfId="9"/>
-    <tableColumn id="3" name="Example" dataDxfId="8"/>
-    <tableColumn id="4" name="Note" dataDxfId="7"/>
-    <tableColumn id="5" name="Link" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Name" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Description" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Example" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Note" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Link" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A2:D10" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A2:D10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table4" displayName="Table4" ref="A2:D10" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A2:D10" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Name" dataDxfId="3"/>
-    <tableColumn id="2" name="Work" dataDxfId="2"/>
-    <tableColumn id="3" name="Column3" dataDxfId="1"/>
-    <tableColumn id="4" name="Column4" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Name" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Work" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Column3" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Column4" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2110,23 +2220,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:D41"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.6328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.81640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.453125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="1" width="24.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2140,12 +2250,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -2159,7 +2269,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -2173,7 +2283,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -2187,7 +2297,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -2201,7 +2311,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -2212,7 +2322,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -2220,7 +2330,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -2228,7 +2338,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -2236,7 +2346,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -2244,7 +2354,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -2252,12 +2362,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>47</v>
       </c>
@@ -2271,7 +2381,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
@@ -2285,7 +2395,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
@@ -2299,7 +2409,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
@@ -2313,7 +2423,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
@@ -2327,7 +2437,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
@@ -2338,7 +2448,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>48</v>
       </c>
@@ -2346,7 +2456,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>49</v>
       </c>
@@ -2354,7 +2464,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>56</v>
       </c>
@@ -2362,22 +2472,22 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>66</v>
       </c>
@@ -2391,7 +2501,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>68</v>
       </c>
@@ -2403,7 +2513,7 @@
       </c>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
         <v>72</v>
@@ -2413,7 +2523,7 @@
       </c>
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
         <v>73</v>
@@ -2425,7 +2535,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
         <v>74</v>
@@ -2433,43 +2543,43 @@
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -2487,24 +2597,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:E6"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.81640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18.1796875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="28.6328125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="34.81640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="51.54296875" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="8.90625" style="3"/>
+    <col min="1" max="1" width="18.88671875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="28.5546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="34.88671875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="51.5546875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>66</v>
       </c>
@@ -2521,7 +2631,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="116" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>87</v>
       </c>
@@ -2535,7 +2645,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>98</v>
       </c>
@@ -2546,7 +2656,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>99</v>
       </c>
@@ -2554,7 +2664,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>101</v>
       </c>
@@ -2571,24 +2681,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.81640625" customWidth="1"/>
-    <col min="2" max="2" width="149.54296875" customWidth="1"/>
-    <col min="3" max="3" width="129.1796875" customWidth="1"/>
-    <col min="4" max="4" width="36.08984375" customWidth="1"/>
-    <col min="5" max="5" width="47.453125" customWidth="1"/>
-    <col min="6" max="8" width="10.453125" customWidth="1"/>
+    <col min="1" max="1" width="20.88671875" customWidth="1"/>
+    <col min="2" max="2" width="149.5546875" customWidth="1"/>
+    <col min="3" max="3" width="129.109375" customWidth="1"/>
+    <col min="4" max="4" width="36.109375" customWidth="1"/>
+    <col min="5" max="5" width="47.44140625" customWidth="1"/>
+    <col min="6" max="8" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>103</v>
       </c>
@@ -2605,17 +2715,17 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>66</v>
       </c>
@@ -2632,7 +2742,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="190" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" ht="190.8" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>110</v>
       </c>
@@ -2645,7 +2755,7 @@
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
     </row>
-    <row r="35" spans="1:5" ht="408" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" ht="408" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>107</v>
       </c>
@@ -2660,7 +2770,7 @@
       </c>
       <c r="E35" s="4"/>
     </row>
-    <row r="36" spans="1:5" ht="266" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" ht="265.2" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="5" t="s">
@@ -2669,7 +2779,7 @@
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
     </row>
-    <row r="37" spans="1:5" ht="409.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" ht="409.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>116</v>
       </c>
@@ -2682,35 +2792,35 @@
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
     </row>
-    <row r="38" spans="1:5" ht="19" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
     </row>
-    <row r="39" spans="1:5" ht="19" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
     </row>
-    <row r="40" spans="1:5" ht="19" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
     </row>
-    <row r="41" spans="1:5" ht="19" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
     </row>
-    <row r="42" spans="1:5" ht="19" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -2728,22 +2838,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:D7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.08984375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="32.36328125" style="3" customWidth="1"/>
-    <col min="3" max="4" width="10.453125" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="8.90625" style="3"/>
+    <col min="1" max="1" width="33.109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="32.44140625" style="3" customWidth="1"/>
+    <col min="3" max="4" width="10.44140625" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>66</v>
       </c>
@@ -2757,7 +2867,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>89</v>
       </c>
@@ -2765,7 +2875,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>91</v>
       </c>
@@ -2773,7 +2883,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>93</v>
       </c>
@@ -2781,7 +2891,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>97</v>
       </c>
@@ -2789,7 +2899,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>95</v>
       </c>
@@ -2803,4 +2913,31 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F392D50A-F59E-4F86-B453-DC78E30BB413}">
+  <dimension ref="A1:A21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="W21" sqref="W21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A21" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Document/English/English.xlsx
+++ b/Document/English/English.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Common\CommonJS\Document\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B3C004-054D-4C22-A5FB-A73FE07E7416}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29729CE6-A050-4297-A451-102ADDF9486F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
